--- a/data/trans_camb/P1426-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1426-Edad-trans_camb.xlsx
@@ -657,18 +657,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.213858949022377</v>
+        <v>1.396395852158372</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>3.747745353004521</v>
+        <v>3.553143908280063</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6612513028804408</v>
+        <v>0.7053978132312457</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.311174817075436</v>
+        <v>1.501409729442051</v>
       </c>
     </row>
     <row r="7">
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.980256606563708</v>
+        <v>-2.28093691223088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.832849667124988</v>
+        <v>-1.686097353305793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9205724187279922</v>
+        <v>-1.065053094292018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5184205666424957</v>
+        <v>-0.461612238214119</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.092255557638562</v>
+        <v>-1.051086343880956</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6500345165023269</v>
+        <v>-0.6185421081772047</v>
       </c>
     </row>
     <row r="12">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1349406414698104</v>
+        <v>-0.1360601118580474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2305107941593642</v>
+        <v>0.3590601001798267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9501863638822734</v>
+        <v>0.8010783102075388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.962662075705079</v>
+        <v>1.987744728838793</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1765929825580824</v>
+        <v>0.179643729302224</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8873356473853493</v>
+        <v>0.9308483936304898</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7128052927396471</v>
+        <v>-0.7203345584077737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9274501217813559</v>
+        <v>-0.8905912333328616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6754650323694487</v>
+        <v>-0.6739124961814439</v>
       </c>
     </row>
     <row r="15">
@@ -868,15 +868,17 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>5.453099576308623</v>
+      </c>
       <c r="F15" s="6" t="n">
-        <v>10.08083754681947</v>
+        <v>9.882447095647356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.114975789652085</v>
+        <v>1.17454503773035</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.714244162497609</v>
+        <v>3.414872870296328</v>
       </c>
     </row>
     <row r="16">
@@ -900,13 +902,13 @@
         <v>-0.1035641259642532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.3502936946828574</v>
+        <v>-0.3502936946828573</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.3462544323975627</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2518883308949674</v>
+        <v>0.2518883308949673</v>
       </c>
     </row>
     <row r="17">
@@ -917,22 +919,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.447011617234642</v>
+        <v>-1.589655250577878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1979725950183956</v>
+        <v>-0.350882252467639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.037182827904861</v>
+        <v>-1.093957295220845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.409311898214485</v>
+        <v>-1.328394373742292</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9156857977762796</v>
+        <v>-0.9650985898527956</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4631222556103379</v>
+        <v>-0.4386606796044078</v>
       </c>
     </row>
     <row r="18">
@@ -943,22 +945,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0003241702852967991</v>
+        <v>-0.102511609475637</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.122151171868007</v>
+        <v>2.155918349271512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7407478699995125</v>
+        <v>0.6671408497754211</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2415023935907382</v>
+        <v>0.2147508794239527</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2026532019827757</v>
+        <v>0.1200560035782646</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9560415065250316</v>
+        <v>1.024912930029578</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +980,13 @@
         <v>-0.1555803878448938</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.5262326927491371</v>
+        <v>-0.526232692749137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4982896526611253</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3624887861852175</v>
+        <v>0.3624887861852172</v>
       </c>
     </row>
     <row r="20">
@@ -996,15 +998,15 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.313539270969508</v>
+        <v>-0.4388397102087279</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.8458769679112332</v>
+        <v>-0.8900534436522984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4776232674207493</v>
+        <v>-0.4925310723581375</v>
       </c>
     </row>
     <row r="21">
@@ -1016,15 +1018,15 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>8.709652212174694</v>
+        <v>5.275393132028889</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>0.9754413683438853</v>
+        <v>0.5398666000478348</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.351743022076005</v>
+        <v>2.802057447787011</v>
       </c>
     </row>
     <row r="22">
@@ -1065,22 +1067,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5740345323685959</v>
+        <v>-0.5353772945627077</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.147163128246947</v>
+        <v>1.180797849034602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.233622015860735</v>
+        <v>-1.375777100157213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02579318206234829</v>
+        <v>0.06171139200144847</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6528931905558785</v>
+        <v>-0.6781982825570598</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9582532291946481</v>
+        <v>0.8075125160655056</v>
       </c>
     </row>
     <row r="24">
@@ -1091,22 +1093,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.629030655876659</v>
+        <v>1.591695123612937</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.20764385681278</v>
+        <v>4.232196144808468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.669725248792006</v>
+        <v>0.6908923737673939</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.38927504528494</v>
+        <v>2.294665806613364</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8992576915867834</v>
+        <v>0.9058118732726177</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.913718499037549</v>
+        <v>2.747161969176042</v>
       </c>
     </row>
     <row r="25">
@@ -1120,7 +1122,7 @@
         <v>0.6914844471021656</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>3.690165260015437</v>
+        <v>3.690165260015436</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.3350815525261117</v>
@@ -1143,22 +1145,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5868348901983985</v>
+        <v>-0.5972074680062216</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6689968261934064</v>
+        <v>0.5458469792082634</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8570640200031232</v>
+        <v>-0.8907429120074212</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06698665778911676</v>
+        <v>-0.07168505142392903</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5593526897805624</v>
+        <v>-0.5912485268282873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.679059904784901</v>
+        <v>0.6189423035785052</v>
       </c>
     </row>
     <row r="27">
@@ -1169,22 +1171,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7.85891956467384</v>
+        <v>5.789889359375416</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19.09325745827814</v>
+        <v>16.03801356437152</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.805469356285555</v>
+        <v>2.086780500826455</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.011452743723031</v>
+        <v>6.223700470184134</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.979070219322902</v>
+        <v>1.911184345685158</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6.121204579717213</v>
+        <v>5.790545133236482</v>
       </c>
     </row>
     <row r="28">
@@ -1202,7 +1204,7 @@
         <v>-0.06056694736152404</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.018689382498272</v>
+        <v>3.018689382498271</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.411275852089931</v>
@@ -1214,7 +1216,7 @@
         <v>0.6905087622202776</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.774320752416719</v>
+        <v>2.774320752416718</v>
       </c>
     </row>
     <row r="29">
@@ -1225,22 +1227,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.165211505879899</v>
+        <v>-2.056010240461958</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4913505301058753</v>
+        <v>0.5552212720904099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.275256031196037</v>
+        <v>-0.3891780094086057</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7191211320532348</v>
+        <v>0.7042654155349024</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8100593054236934</v>
+        <v>-0.6888217595079335</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.194925606613514</v>
+        <v>1.270771339712279</v>
       </c>
     </row>
     <row r="30">
@@ -1251,22 +1253,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.212051979753026</v>
+        <v>2.266793702123983</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.031269524556007</v>
+        <v>5.187675834676445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.472866852581284</v>
+        <v>3.445002036386993</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.088465667670019</v>
+        <v>3.983914799831815</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.209893554546406</v>
+        <v>2.241591908593999</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.12765180614787</v>
+        <v>4.122118553017946</v>
       </c>
     </row>
     <row r="31">
@@ -1280,13 +1282,13 @@
         <v>-0.02393488844179177</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1.192927772622341</v>
+        <v>1.19292777262234</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>1.01023190983425</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1.791866759813751</v>
+        <v>1.79186675981375</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3537685037257092</v>
@@ -1303,22 +1305,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6238876558377826</v>
+        <v>-0.6336129441137558</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07981497562395702</v>
+        <v>0.05652120299646114</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2042760186729117</v>
+        <v>-0.2648503637238572</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.23096998752293</v>
+        <v>0.167421936118833</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3249240015727578</v>
+        <v>-0.2943235751652392</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3842363659968826</v>
+        <v>0.401174281127397</v>
       </c>
     </row>
     <row r="33">
@@ -1329,22 +1331,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.89128690682444</v>
+        <v>1.67145366439377</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.47090750998503</v>
+        <v>3.329213706175212</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>6.08737522559032</v>
+        <v>5.506951441397972</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>5.96949520182793</v>
+        <v>5.887202767351631</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.741091876331335</v>
+        <v>1.745475784296701</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.215269272187529</v>
+        <v>3.198077274790357</v>
       </c>
     </row>
     <row r="34">
@@ -1362,13 +1364,13 @@
         <v>-3.828671222679117</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2.973250524428849</v>
+        <v>2.973250524428847</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>4.556363185454761</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4.915258302759109</v>
+        <v>4.915258302759107</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.629841001189551</v>
@@ -1385,22 +1387,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.365153011070998</v>
+        <v>-7.766222565713024</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.7613696543833409</v>
+        <v>-0.8434538566759736</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.769886343110451</v>
+        <v>1.896726870801592</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.565150054998643</v>
+        <v>2.41110490973877</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.824817314428542</v>
+        <v>-1.483359366890208</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.686075991481236</v>
+        <v>1.899550794957054</v>
       </c>
     </row>
     <row r="36">
@@ -1411,22 +1413,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.9078272895579607</v>
+        <v>-1.125498630661691</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.337867685017784</v>
+        <v>6.306942384659171</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.491345188212284</v>
+        <v>7.63221693316093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.005966631144009</v>
+        <v>7.015235938389353</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.752986908163475</v>
+        <v>2.66173558740317</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.016996398404363</v>
+        <v>6.037885614284726</v>
       </c>
     </row>
     <row r="37">
@@ -1440,13 +1442,13 @@
         <v>-0.6821479539733717</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.5297390775879054</v>
+        <v>0.5297390775879052</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>2.340568152326083</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>2.524929768684821</v>
+        <v>2.52492976868482</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1722007156987059</v>
@@ -1463,22 +1465,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8868448769154713</v>
+        <v>-0.9051369968540049</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1233397464787069</v>
+        <v>-0.1114665298223168</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4759988817469646</v>
+        <v>0.4734747202756713</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.6430951519349991</v>
+        <v>0.5391177376855382</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3724121288711845</v>
+        <v>-0.3056456418833111</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2853928779611024</v>
+        <v>0.3101010746416405</v>
       </c>
     </row>
     <row r="39">
@@ -1489,22 +1491,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1764874962927454</v>
+        <v>-0.2154288992856294</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.785290265851086</v>
+        <v>1.76800231612374</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6.96994156590751</v>
+        <v>7.487383611201823</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>7.135329152881108</v>
+        <v>6.865138964891587</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.108649138345751</v>
+        <v>1.049308516727879</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.356790551881929</v>
+        <v>2.369648932196992</v>
       </c>
     </row>
     <row r="40">
@@ -1528,7 +1530,7 @@
         <v>-4.279766924000199</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10.50886117360934</v>
+        <v>10.50886117360933</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-0.9239252477140845</v>
@@ -1545,22 +1547,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.2388249066528204</v>
+        <v>0.3670114637290751</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>11.22889110785236</v>
+        <v>11.48710762477735</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.183010996693877</v>
+        <v>-8.35578650927352</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.422396293797111</v>
+        <v>6.370382114127933</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.890608347921459</v>
+        <v>-3.720914756204297</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>9.530540882969142</v>
+        <v>9.060844326737055</v>
       </c>
     </row>
     <row r="42">
@@ -1571,22 +1573,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.156595995449099</v>
+        <v>8.325592952173059</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>19.99765594284611</v>
+        <v>19.97118005232633</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.199724816790262</v>
+        <v>-0.4546651633068259</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.19532693309097</v>
+        <v>14.36869727674236</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.233406074285976</v>
+        <v>2.315004394003508</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.5907962086066</v>
+        <v>15.56678043150916</v>
       </c>
     </row>
     <row r="43">
@@ -1623,22 +1625,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.02044780113208485</v>
+        <v>0.03981683351687737</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>1.520776613188682</v>
+        <v>1.633109039147572</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6871278488905586</v>
+        <v>-0.7000679864876718</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5102183647268221</v>
+        <v>0.5112888838782635</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4344701209325647</v>
+        <v>-0.408837238886154</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.966118893270668</v>
+        <v>0.9826505846502501</v>
       </c>
     </row>
     <row r="45">
@@ -1649,22 +1651,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.326322216791885</v>
+        <v>3.591791809442401</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>8.874018234253997</v>
+        <v>9.035894339481114</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.01418864726161126</v>
+        <v>-0.03121465078374067</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.0591960421979</v>
+        <v>1.86921168878934</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3700003813198772</v>
+        <v>0.3871337886112065</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.581175026062112</v>
+        <v>2.68055954371502</v>
       </c>
     </row>
     <row r="46">
@@ -1688,7 +1690,7 @@
         <v>0.1832827409928212</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>2.825887113242434</v>
+        <v>2.825887113242433</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0.04744299820814632</v>
@@ -1705,22 +1707,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.6787269547777631</v>
+        <v>-0.6490633925087377</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.42862685779368</v>
+        <v>2.312552698071689</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.4507470095306949</v>
+        <v>-0.4952723096967137</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.143792552696347</v>
+        <v>2.135272296708975</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.4270551858219535</v>
+        <v>-0.4254958562918416</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.455367803977934</v>
+        <v>2.374858651768212</v>
       </c>
     </row>
     <row r="48">
@@ -1731,22 +1733,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5321097723689854</v>
+        <v>0.5347288568932428</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.971868041036964</v>
+        <v>3.879829030544936</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.8758082162362555</v>
+        <v>0.8365977541592998</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.559468171930644</v>
+        <v>3.564991784864313</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.4940303718232147</v>
+        <v>0.5063757714770132</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.511896628533315</v>
+        <v>3.477232305429793</v>
       </c>
     </row>
     <row r="49">
@@ -1766,7 +1768,7 @@
         <v>0.09892784464265406</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>1.525287759241202</v>
+        <v>1.525287759241201</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02791949921189076</v>
@@ -1783,22 +1785,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3672231611945717</v>
+        <v>-0.3621788506780518</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>1.267404144230611</v>
+        <v>1.220097870051027</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2058097462416336</v>
+        <v>-0.2293350723775881</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.9445673898487463</v>
+        <v>0.9405590518504118</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2204049726797562</v>
+        <v>-0.2246349893793827</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.254301831781107</v>
+        <v>1.186959967361414</v>
       </c>
     </row>
     <row r="51">
@@ -1809,22 +1811,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4475197046356508</v>
+        <v>0.4476366003309776</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>3.246238591532286</v>
+        <v>3.20768264798985</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6015630394910959</v>
+        <v>0.5254646689911758</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2.359137969748936</v>
+        <v>2.343049558507921</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3209181768934963</v>
+        <v>0.3530370546545523</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.361555661684846</v>
+        <v>2.377378355667097</v>
       </c>
     </row>
     <row r="52">
